--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="5520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -121,12 +121,38 @@
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>比经验值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前三名比佣金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功之后如果通过wecharNo
+,phoneNo 在Customer表中未找到对应的数据，
+是否将新客户的数据插入到Customer表中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +181,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -194,6 +232,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,64 +551,79 @@
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -580,19 +635,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
     <col min="2" max="2" width="106.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -600,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,20 +664,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -109,42 +109,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>比经验值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前三名比佣金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功之后如果通过wecharNo
+,phoneNo 在Customer表中未找到对应的数据，
+是否将新客户的数据插入到Customer表中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">{'phoneNo':'18300001234',
       'password':'yzw123456',
       'name':'Angelina Jolie',
       'nickName':'Angelina',
+      'gender':‘female',
       'birthday':'2000-01-01',
       'followedByStore.id':63,
      'wechatNo':'sfsfsojmn',
       'invitationCode':'aaaaa'
      }
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>比经验值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前三名比佣金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册成功之后如果通过wecharNo
-,phoneNo 在Customer表中未找到对应的数据，
-是否将新客户的数据插入到Customer表中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +542,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,10 +557,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -579,10 +580,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -593,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -672,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -683,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -142,7 +142,7 @@
       'gender':‘female',
       'birthday':'2000-01-01',
       'followedByStore.id':63,
-     'wechatNo':'sfsfsojmn',
+     'wechatNo':'oqSnljhna3lMmHtKODoSvWQNfUTc',
       'invitationCode':'aaaaa'
      }
 </t>
@@ -550,7 +550,7 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
@@ -583,7 +583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -88,19 +88,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/distributer/loginByWechatNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/distributer/loginByAccount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'wechatNo':'xdfdssfs'}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -118,10 +110,6 @@
   </si>
   <si>
     <t>baseUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.115</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -148,12 +136,28 @@
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>192.168.0.115:8080/yiwu/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/loginByWechat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,"secure":false,"msg":"success","data":{"id":3000004,"expGradeNo":1,"name":"Angelina Jolie","nickName":"Angelina","memeberId":"E5000001","shareCode":"wo45g","headIconUrl":null,"neededExpForUpdate":10000.0,"beatRate":1.0},"result":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'wechatNo':'oqSnljhna3lMmHtKODoSvWQNfUTc'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +192,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -221,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -230,11 +241,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,95 +564,103 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="186" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -673,18 +703,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -150,6 +150,22 @@
   </si>
   <si>
     <t>{'wechatNo':'oqSnljhna3lMmHtKODoSvWQNfUTc'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为id 放在路径上 如:/api/distributer/3000004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,6 +671,23 @@
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -580,7 +580,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -157,15 +157,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/distributer/{id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Get</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>参数为id 放在路径上 如:/api/distributer/3000004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/getById/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/modifyHeadIcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id //客户id号
+multipartfile image   //头像图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multipart/form-data</t>
+  </si>
+  <si>
+    <t>{"returnCode":200,
+"secure":false,
+"msg":"success",
+"data":
+{"id":3000018,
+ "expGradeNo":1,
+"name":"易平",
+"nickName":"Ping",
+"memeberId":"E53000018",
+"shareCode":"e3itf",
+"headIconUrl":"/resources/images/headIcons/E53000018jpg",
+"neededExpForUpdate":10000.0,
+"beatRate":1.0
+},
+"result":true}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -577,24 +619,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="3" max="4" width="25.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="47.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -602,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -612,17 +654,20 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="186" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -632,17 +677,17 @@
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -652,14 +697,14 @@
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -669,25 +714,45 @@
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="216" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -2,7 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="5520"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -190,9 +195,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>multipart/form-data</t>
-  </si>
-  <si>
     <t>{"returnCode":200,
 "secure":false,
 "msg":"success",
@@ -204,6 +206,64 @@
 "memeberId":"E53000018",
 "shareCode":"e3itf",
 "headIconUrl":"/resources/images/headIcons/E53000018jpg",
+"neededExpForUpdate":10000.0,
+"beatRate":1.0
+},
+"result":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/business/getperformance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取推广成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //客户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,
+"secure":false,
+"msg":"success",
+"data":
+{"distributerId":3000018,
+ "myShareTweetTimes":1,//我分享推文的有效次数(
+                不产生经验收益的不算)
+"subordinateShareTweetTimes":"100",  //我的下级
+     客户分享推文的次数
+"subordinateCount":"100",   //我的一级客户数量
+"secondaryCount":"200",     //我的二级客户数量
+"subordinateOrderCount":"10", //我的一级客户成
+         交订单数
+"secondaryOrderCount":"20",  //我的二级客户成
+         交的订单数
+}
+"result":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multipart/form-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,
+"secure":false,
+"msg":"success",
+"data":
+{"id":3000004,
+"expGradeNo":1,
+"name":"AngelinaJolie",
+"nickName":"Angelina",
+"memeberId":"E5000001",
+"shareCode":"wo45g",
+"headIconUrl":null,
 "neededExpForUpdate":10000.0,
 "beatRate":1.0
 },
@@ -619,10 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -718,7 +779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="225" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -732,7 +793,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="216" x14ac:dyDescent="0.15">
@@ -746,13 +807,30 @@
         <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -683,7 +683,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -268,6 +268,18 @@
 "beatRate":1.0
 },
 "result":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取前三名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/business/getTopThree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -831,6 +843,20 @@
       </c>
       <c r="F8" s="7" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -282,12 +282,15 @@
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>{"returnCode":200,"secure":false,"msg":"success","data":[{"distributerApiView":{"id":3000044,"expGradeNo":1,"name":"金程伟","nickName":"king","memeberId":"E53000044","shareCode":"e3in5","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":150.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000045,"expGradeNo":1,"name":"张三","nickName":"zhangsan","memeberId":"E53000045","shareCode":"e3ini","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":100.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000018,"expGradeNo":1,"name":"易平","nickName":"Ping","memeberId":"E53000018","shareCode":"e3itf","headIconUrl":"/resources/images/headIcons/E53000018jpg","registerDate":"2017-05-03","neededExpForUpdate":9920.0,"beatRate":0.0},"accumulativeBrokerage":50.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":1,"secondaryCount":3,"subordinateOrderCount":0,"secondaryOrderCount":0}],"result":true}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +332,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -362,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -385,6 +397,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -694,8 +709,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -857,6 +872,9 @@
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="5520"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="API" sheetId="2" r:id="rId1"/>
     <sheet name="Question" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -282,12 +277,15 @@
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>{"returnCode":200,"secure":false,"msg":"success","data":[{"distributerApiView":{"id":3000044,"expGradeNo":1,"name":"金程伟","nickName":"king","memeberId":"E53000044","shareCode":"e3in5","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":150.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000045,"expGradeNo":1,"name":"张三","nickName":"zhangsan","memeberId":"E53000045","shareCode":"e3ini","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":100.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000018,"expGradeNo":1,"name":"易平","nickName":"Ping","memeberId":"E53000018","shareCode":"e3itf","headIconUrl":"/resources/images/headIcons/E53000018jpg","registerDate":"2017-05-03","neededExpForUpdate":9920.0,"beatRate":0.0},"accumulativeBrokerage":50.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":1,"secondaryCount":3,"subordinateOrderCount":0,"secondaryOrderCount":0}],"result":true}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +327,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -362,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -375,9 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -386,6 +390,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +457,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,10 +489,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +523,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,26 +698,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
     <col min="3" max="4" width="25.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="39.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="47.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="23" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -717,30 +725,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="186" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -750,17 +758,17 @@
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="27">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -770,14 +778,14 @@
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -787,11 +795,11 @@
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="225" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="27">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -801,14 +809,14 @@
       <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="216" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="27">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -821,14 +829,14 @@
       <c r="D7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -838,14 +846,14 @@
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -855,8 +863,11 @@
       <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -867,21 +878,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
     <col min="2" max="2" width="106.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -908,7 +919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -285,12 +285,39 @@
   <si>
     <t>{"returnCode":200,"secure":false,"msg":"success","data":[{"distributerApiView":{"id":3000044,"expGradeNo":1,"name":"金程伟","nickName":"king","memeberId":"E53000044","shareCode":"e3in5","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":150.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000045,"expGradeNo":1,"name":"张三","nickName":"zhangsan","memeberId":"E53000045","shareCode":"e3ini","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":100.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000018,"expGradeNo":1,"name":"易平","nickName":"Ping","memeberId":"E53000018","shareCode":"e3itf","headIconUrl":"/resources/images/headIcons/E53000018jpg","registerDate":"2017-05-03","neededExpForUpdate":9920.0,"beatRate":0.0},"accumulativeBrokerage":50.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":1,"secondaryCount":3,"subordinateOrderCount":0,"secondaryOrderCount":0}],"result":true}</t>
   </si>
+  <si>
+    <t>/api/moneyRecord/getCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资金进出的总记录数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,"secure":false,"msg":"success","data":4,"result":true}</t>
+  </si>
+  <si>
+    <t>获取资金记录列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/getList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,"secure":false,"msg":"success","data":[{"benificiaryId":3000043,"date":1494035089000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":50.0},{"benificiaryId":3000043,"date":1494035518000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":100.0},{"benificiaryId":3000043,"date":1494035639000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":150.0},{"benificiaryId":3000043,"date":1494042623000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":200.0}],"result":true}</t>
+  </si>
+  <si>
+    <t>int benificiaryId //客户id,
+ String category //取值 "全部", "收入","奖励","支出", "提现"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +368,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -374,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -387,9 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -399,8 +430,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,19 +744,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
-    <col min="3" max="4" width="25.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="56.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="47.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="23" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
@@ -733,25 +771,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -765,17 +803,17 @@
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -785,10 +823,10 @@
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -802,11 +840,11 @@
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="225" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -816,14 +854,14 @@
       <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="216" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -836,14 +874,14 @@
       <c r="D7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -853,10 +891,10 @@
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -870,11 +908,45 @@
       <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -309,7 +309,7 @@
   </si>
   <si>
     <t>int benificiaryId //客户id,
- String category //取值 "全部", "收入","奖励","支出", "提现"</t>
+String category //取值 "全部", "收入","奖励","支出", "提现"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -747,16 +747,16 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="56.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="47.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="23" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -310,6 +310,29 @@
   <si>
     <t>int benificiaryId //客户id,
 String category //取值 "全部", "收入","奖励","支出", "提现"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取默认的提现帐号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/getDefaultCapitalAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //客户id</t>
+  </si>
+  <si>
+    <t>data: {id：帐号id, typeName:帐号类型, account:帐号}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增提现帐号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -744,20 +767,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="46" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="56.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="55.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="23" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
@@ -813,7 +836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -844,7 +867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -947,6 +970,28 @@
       </c>
       <c r="F11" s="5" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -317,10 +317,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/distributer/getDefaultCapitalAccount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -328,11 +324,59 @@
     <t>int distributerId   //客户id</t>
   </si>
   <si>
-    <t>data: {id：帐号id, typeName:帐号类型, account:帐号}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>新增提现帐号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认提现帐号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/capitalAccount/getDefault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取帐号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/capitalAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //客户id
+string account
+string typeName  //"微信" 或者 "支付宝"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId
+string typeName  //帐号类型 "微信" 或者 "支付宝"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //客户id
+int accountId       //帐号id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data: {accountId：帐号id, typeName:帐号类型, account:帐号}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data: true(or false)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post（put)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/capitalAccount/setDefault</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -767,10 +811,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,9 +822,9 @@
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="46" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="56.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="55.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="255.625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
@@ -977,21 +1021,67 @@
         <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>64</v>
+      <c r="B15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -308,11 +308,6 @@
     <t>{"returnCode":200,"secure":false,"msg":"success","data":[{"benificiaryId":3000043,"date":1494035089000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":50.0},{"benificiaryId":3000043,"date":1494035518000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":100.0},{"benificiaryId":3000043,"date":1494035639000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":150.0},{"benificiaryId":3000043,"date":1494042623000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":200.0}],"result":true}</t>
   </si>
   <si>
-    <t>int benificiaryId //客户id,
-String category //取值 "全部", "收入","奖励","支出", "提现"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取默认的提现帐号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -377,6 +372,24 @@
   </si>
   <si>
     <t>/api/distributer/capitalAccount/setDefault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int benificiaryId //客户id,(收益人)
+String category //取值 "全部", "收入","奖励","支出", "提现"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/withdraw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int accountId    //提现帐号
+float amount     //提现金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -811,10 +824,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1010,7 +1023,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>57</v>
@@ -1018,70 +1031,87 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>72</v>
+      <c r="E16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -388,7 +388,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int accountId    //提现帐号
+    <t>int distributerId  //提现人
+int accountId    //提现帐号
 float amount     //提现金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -826,8 +827,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,7 +1098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -391,6 +391,20 @@
     <t>int distributerId  //提现人
 int accountId    //提现帐号
 float amount     //提现金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/payDeposit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付定金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId  //支付人
+float amount     //支付金额
+boolean fundsFirst //是否优先使用基金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -825,10 +839,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1113,6 +1127,20 @@
       </c>
       <c r="F16" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -153,10 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Get</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,10 +170,6 @@
   </si>
   <si>
     <t>/api/distributer/modifyHeadIcon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -205,10 +197,6 @@
 "beatRate":1.0
 },
 "result":true}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/business/getperformance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -244,7 +232,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>multipart/form-data</t>
+    <t>获取前三名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/business/getTopThree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -266,19 +270,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取前三名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/business/getTopThree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>multipart/form-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/business/getperformance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"returnCode":200,"secure":false,"msg":"success","data":[{"distributerApiView":{"id":3000044,"expGradeNo":1,"name":"金程伟","nickName":"king","memeberId":"E53000044","shareCode":"e3in5","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":150.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000045,"expGradeNo":1,"name":"张三","nickName":"zhangsan","memeberId":"E53000045","shareCode":"e3ini","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":100.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000018,"expGradeNo":1,"name":"易平","nickName":"Ping","memeberId":"E53000018","shareCode":"e3itf","headIconUrl":"/resources/images/headIcons/E53000018jpg","registerDate":"2017-05-03","neededExpForUpdate":9920.0,"beatRate":0.0},"accumulativeBrokerage":50.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":1,"secondaryCount":3,"subordinateOrderCount":0,"secondaryOrderCount":0}],"result":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -391,11 +392,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,8 +703,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -712,7 +713,7 @@
     <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
     <col min="3" max="4" width="25.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="39.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="59.375" style="5" customWidth="1"/>
     <col min="7" max="7" width="23" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
@@ -736,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>8</v>
@@ -761,14 +762,14 @@
       <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27">
+    <row r="4" spans="1:7" ht="75">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -781,7 +782,7 @@
       <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -799,74 +800,74 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27">
+    <row r="6" spans="1:7" ht="225">
       <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="202.5">
+      <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="27">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="229.5">
+      <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="337.5">
+      <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>51</v>
       </c>
     </row>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -15,7 +15,7 @@
     <sheet name="API" sheetId="2" r:id="rId1"/>
     <sheet name="Question" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -842,7 +842,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -842,7 +842,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -3,24 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="5520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
     <sheet name="Question" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -405,6 +401,10 @@
     <t>int distributerId  //支付人
 float amount     //支付金额
 boolean fundsFirst //是否优先使用基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程券是什么东东</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -841,8 +841,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1152,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1203,6 +1203,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="10155" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12990" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
     <sheet name="Question" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -841,8 +845,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1154,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12990" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -411,12 +411,87 @@
     <t>课程券是什么东东</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>/api/tweet/save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/tweetType/list</t>
+  </si>
+  <si>
+    <t>获取所有推文类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{id:推文类型Id, name: 推文类型名}...]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int tweetTypeId  //推文类型Id 必须， 全部类型id =0 
+String title     //推文标题, 非必须 按标题模糊查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>保存推文
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>富文本编辑器使用ueditor)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String author  //作者 必须
+String title  //富文本标题 必须
+String digest //简介 必须 50字以内
+multiFile coverIcon //推文简介图片 必须
+int tweetTypeId //推文类型Id  必须
+String content  // 推文富文本内容 必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取推文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id: 推文Id, 
+author:推文作者，
+title: 推文标题，
+digest: 推文简介,
+coverIconUrl: 推文简介图片相对Url,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +548,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -843,21 +926,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="46" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="56.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="255.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1133,7 +1217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -1145,6 +1229,60 @@
       </c>
       <c r="E17" s="6" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -479,11 +479,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>data:{id: 推文Id, 
-author:推文作者，
+    <t>data:{tweetId: 推文Id, 
 title: 推文标题，
 digest: 推文简介,
-coverIconUrl: 推文简介图片相对Url,</t>
+coverIconUrl: 推文简介图片相对Url,
+tweetTypeName: 推文类型}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -928,9 +928,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -484,6 +484,26 @@
 digest: 推文简介,
 coverIconUrl: 推文简介图片相对Url,
 tweetTypeName: 推文类型}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/id/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id //推文Id 必须 放在路径上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id:推文Id,
+title: 推文标题,
+author: 推文作者,
+editDate: 推文创作日期,
+contentHtml: 推文内容}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,11 +946,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1283,6 +1303,20 @@
       </c>
       <c r="F20" s="6" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -475,10 +475,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取推文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>data:{tweetId: 推文Id, 
 title: 推文标题，
 digest: 推文简介,
@@ -504,6 +500,31 @@
 author: 推文作者,
 editDate: 推文创作日期,
 contentHtml: 推文内容}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取推文简介表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取推文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享推文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/share</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //分享者Id 必须
+int tweetId         //推文Id 必须</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -946,11 +967,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1290,7 +1311,7 @@
     </row>
     <row r="20" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>89</v>
@@ -1302,21 +1323,41 @@
         <v>90</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>98</v>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -969,9 +969,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -420,9 +420,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>api/tweetType/list</t>
-  </si>
-  <si>
     <t>获取所有推文类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -527,12 +524,82 @@
 int tweetId         //推文Id 必须</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>api/tweetType/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取消息列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/message/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int receiverId      //接收者Id  必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{id: 消息Id,
+ date:消息发送日期,
+ status: 消息状态（未读或已读)
+ content: 消息文本内容}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/message/id/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id: 消息Id,
+ date:消息发送日期,
+ status: 消息状态（未读或已读)
+ content: 消息文本内容}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获取消息
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取之后会将状态设置为已读)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int id    //消息Id 必须 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放在路径上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +659,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -967,11 +1042,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1274,24 +1349,24 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>82</v>
@@ -1303,7 +1378,7 @@
         <v>46</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>71</v>
@@ -1311,53 +1386,87 @@
     </row>
     <row r="20" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -592,6 +592,91 @@
       </rPr>
       <t>放在路径上</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId  // 分享者Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{id: 订单Id,
+ productName： 产品名称，
+ buyDate:购买日期}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/order/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/order/id/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String id    //订单Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id:订单Id,
+contractNo: 合同编号,
+productType: 产品类型（开放式，封闭式，私教课),
+validityTimes: 合约有效次数,
+contractStart: 合约开始时间,
+contractEnd: 合约结束时间,
+courseId: 课程Id,
+courseName: 课程名，
+courseStore:上课门店，
+courseStartDate: 课程开始日期}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课时列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/course/id/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String id    //课程Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">data:{id: 课程Id,
+courseDesc:课程描述,
+danceName: 舞蹈名,
+danceGrade: 舞蹈等级}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/lesson/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String courseId //课程Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{id:课时Id,
+date: 上课日期,
+name: 课时名称,
+start:开始上课时间,
+end: 上课结束时间,
+storeName:上课门店名称,
+dueteacher: 上课老师}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1042,11 +1127,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1467,6 +1552,74 @@
       </c>
       <c r="F24" s="6" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -677,6 +677,30 @@
 end: 上课结束时间,
 storeName:上课门店名称,
 dueteacher: 上课老师}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取上课记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int customerid //客户Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/checkIns/lesson/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取上课总记录数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/checkIns/lesson/count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date:{count:上课总记录数}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1127,11 +1151,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,6 +1644,40 @@
       </c>
       <c r="F28" s="6" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -701,6 +701,33 @@
   </si>
   <si>
     <t>date:{count:上课总记录数}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取电子合约文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String contractNo  //电子合约文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认合约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/e-contract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int customerid //客户Id
+String contractNo //合约号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{contractNo:合约号,
+ text:电子合约文本,
+ isConfirmed:客户是否已确认合约}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1151,11 +1178,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1678,6 +1705,40 @@
       </c>
       <c r="F30" s="5" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="145">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -728,6 +728,26 @@
     <t>data:{contractNo:合约号,
  text:电子合约文本,
  isConfirmed:客户是否已确认合约}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证手机号码是否已注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String: phoneNo //手机号码 必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/validatyPhoneNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data: true(or false) //已注册返回true</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1178,11 +1198,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,222 +1268,223 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>71</v>
@@ -1471,231 +1492,231 @@
     </row>
     <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>93</v>
@@ -1703,41 +1724,58 @@
       <c r="E30" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="F30" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>71</v>
       </c>
     </row>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="10155"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12990" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -1200,9 +1200,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12990" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
     <sheet name="Question" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F9"/>
 </workbook>
 </file>
 
@@ -1202,7 +1198,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="7650"/>
   </bookViews>
@@ -11,12 +16,11 @@
     <sheet name="Question" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -744,6 +748,32 @@
   </si>
   <si>
     <t>data: true(or false) //已注册返回true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享推文记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/share/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharerId   //推文分享者Id 必须 (我，一级客户，二级客户)
+int beneficiaryId        //经验收益者Id 必须 (我)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id:推文分享记录Id,
+sharer:分享者姓名,
+shareDate: 分享日期,
+tweetTitle: 分享的推文标题,
+tweetType: 分享的推文类型,
+exp: 分享该推文后,beneficiaryId收获的经验值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1194,11 +1224,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1605,131 +1635,131 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>93</v>
@@ -1737,41 +1767,58 @@
       <c r="E31" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="F31" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>71</v>
       </c>
     </row>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="155">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -768,12 +768,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>data:{id:推文分享记录Id,
+    <t>获取我分享的推文记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharerId   //我的Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{{id:推文分享记录Id,
 sharer:分享者姓名,
 shareDate: 分享日期,
 tweetTitle: 分享的推文标题,
 tweetType: 分享的推文类型,
-exp: 分享该推文后,beneficiaryId收获的经验值</t>
+exp: 分享该推文后,beneficiaryId收获的经验值}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我所有一级客户的分享推文记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/share/list/my</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/share/list/subordinates</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1224,11 +1244,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1649,176 +1669,210 @@
         <v>148</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="135" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>71</v>
       </c>
     </row>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="161">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -794,6 +794,34 @@
   </si>
   <si>
     <t>/api/tweet/share/list/subordinates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一级客户注册记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取二级客户注册记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/registerRecords/subordinates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/registerRecords/secondaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId  //分享者Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{registerDate: 注册日期,
+memberId:会员Id,
+memberName 会员名,
+superDistributerName:上级分销者姓名,
+exp:本人获取到的经验值}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +904,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,6 +923,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -908,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -938,6 +972,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,17 +1284,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="56.5" style="6" customWidth="1"/>
@@ -1400,46 +1440,46 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>42</v>
@@ -1447,73 +1487,73 @@
       <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="F11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>70</v>
@@ -1521,358 +1561,392 @@
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="135" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>71</v>
       </c>
     </row>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -822,6 +822,35 @@
 memberName 会员名,
 superDistributerName:上级分销者姓名,
 exp:本人获取到的经验值}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一级客户成交订单记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取二级可定成交订单记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{payedDate:订单支付日期}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/orderRecords/subordinates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/orderRecords/secondaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{payedDate: 订单日期,
+membername:会员姓名,
+superDistributerName:上级分销者姓名,
+orderAmount: 订单金额,
+promotionRate: 提成比率,
+inComeBrokerage: 收入}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1284,16 +1313,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="5" customWidth="1"/>
@@ -1542,52 +1571,52 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>70</v>
@@ -1595,358 +1624,395 @@
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="F22" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+    <row r="28" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="135" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1959,6 +2025,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -375,11 +375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int benificiaryId //客户id,(收益人)
-String category //取值 "全部", "收入","奖励","支出", "提现"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>提现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -851,6 +846,11 @@
 orderAmount: 订单金额,
 promotionRate: 提成比率,
 inComeBrokerage: 收入}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int beneficiaryId //客户id,(收益人)
+String category //取值 "全部", "收入","奖励","支出", "提现"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1316,8 +1316,8 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,19 +1385,19 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1471,36 +1471,36 @@
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1565,7 +1565,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>57</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>42</v>
@@ -1585,15 +1585,15 @@
         <v>44</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>42</v>
@@ -1602,7 +1602,7 @@
         <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1675,16 +1675,16 @@
     </row>
     <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>71</v>
@@ -1692,53 +1692,53 @@
     </row>
     <row r="22" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>71</v>
@@ -1746,50 +1746,50 @@
     </row>
     <row r="25" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>71</v>
@@ -1797,220 +1797,220 @@
     </row>
     <row r="28" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>71</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -1316,8 +1316,8 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -147,10 +147,6 @@
   </si>
   <si>
     <t>/api/distributer/loginByWechat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"returnCode":200,"secure":false,"msg":"success","data":{"id":3000004,"expGradeNo":1,"name":"Angelina Jolie","nickName":"Angelina","memeberId":"E5000001","shareCode":"wo45g","headIconUrl":null,"neededExpForUpdate":10000.0,"beatRate":1.0},"result":true}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -851,6 +847,22 @@
   <si>
     <t>int beneficiaryId //客户id,(收益人)
 String category //取值 "全部", "收入","奖励","支出", "提现"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id:分享者Id,
+expGradeNo:经验等级号，
+name: 姓名，
+nickName:呢称，
+phoneNo:手机号码,
+memberId:会员Id,
+shareCode:分享码,
+headIconUrl:头像Url,
+registerDate:注册日期，
+neededExpForUpdate:经验等级升到下一级所需经验,
+brokerage:当前拥有的佣金,
+funds:当前拥有的基金，
+customerId:对应的客户Id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1006,6 +1018,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1316,8 +1331,8 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1351,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>8</v>
@@ -1363,7 +1378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="186" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1376,8 +1391,8 @@
       <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>29</v>
+      <c r="F3" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
@@ -1385,23 +1400,23 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="195" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1412,13 +1427,13 @@
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="F5" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1431,589 +1446,592 @@
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" s="14" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2097,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -128,20 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{'phoneNo':'18300001234',
-      'password':'yzw123456',
-      'name':'Angelina Jolie',
-      'nickName':'Angelina',
-      'gender':‘female',
-      'birthday':'2000-01-01',
-      'followedByStore.id':63,
-     'wechatNo':'oqSnljhna3lMmHtKODoSvWQNfUTc',
-      'invitationCode':'aaaaa'
-     }
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.0.115:8080/yiwu/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -863,6 +849,20 @@
 brokerage:当前拥有的佣金,
 funds:当前拥有的基金，
 customerId:对应的客户Id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{'phoneNo':'18300001234',
+      'password':'yzw123456',
+      'name':'Angelina Jolie',
+      'nickName':'Angelina',
+      'gender':‘FEMALE', //('FEMALE' OR 'MALE' OR   'UNKNOWN')
+      'birthday':'2000-01-01',
+      'followedByStore.id':63,
+     'wechatNo':'oqSnljhna3lMmHtKODoSvWQNfUTc',
+      'invitationCode':'aaaaa'
+     }
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1330,7 +1330,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -1352,7 +1352,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>8</v>
@@ -1389,10 +1389,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
@@ -1400,19 +1400,19 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -1421,16 +1421,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.15">
@@ -1447,591 +1447,591 @@
         <v>20</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -1330,9 +1330,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="174">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -852,8 +852,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{'phoneNo':'18300001234',
-      'password':'yzw123456',
+    <t xml:space="preserve">{'phoneNo':'18300001234', //必须
+      'password':'yzw123456', //必须
       'name':'Angelina Jolie',
       'nickName':'Angelina',
       'gender':‘FEMALE', //('FEMALE' OR 'MALE' OR   'UNKNOWN')
@@ -863,6 +863,42 @@
       'invitationCode':'aaaaa'
      }
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{phoneNo://11位有效的手机号码， 必须
+password: //密码 6-18位字符， 必须
+name:
+nickName:
+gender:// 'FEMALE' OR 'MALE' OR 'UNKNOWN' 必须
+birthday://过去的某一时间
+followedByStoreId://数据归属门店
+wechatNo://微信openId    必须
+invitationCode: //邀请码}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1014,14 +1050,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,11 +1367,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1391,176 +1430,171 @@
       <c r="E3" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>165</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="195" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>165</v>
-      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+    <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>40</v>
@@ -1568,33 +1602,33 @@
       <c r="E13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>53</v>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
-        <v>158</v>
+        <v>48</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>40</v>
@@ -1602,435 +1636,469 @@
       <c r="E15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>159</v>
+      <c r="F15" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>60</v>
+      <c r="A20" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>72</v>
+      <c r="A21" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+    <row r="28" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A31" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="135" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>69</v>
       </c>
     </row>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="176">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -899,6 +899,17 @@
 followedByStoreId://数据归属门店
 wechatNo://微信openId    必须
 invitationCode: //邀请码}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{name:
+nickName:
+phoneNo:
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data{true or false}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1370,8 +1381,8 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1544,7 +1555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>167</v>
       </c>
@@ -1553,6 +1564,12 @@
       </c>
       <c r="C10" s="5" t="s">
         <v>169</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -1381,8 +1381,8 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -890,18 +890,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{phoneNo://11位有效的手机号码， 必须
-password: //密码 6-18位字符， 必须
-name:
-nickName:
-gender:// 'FEMALE' OR 'MALE' OR 'UNKNOWN' 必须
-birthday://过去的某一时间
-followedByStoreId://数据归属门店
-wechatNo://微信openId    必须
-invitationCode: //邀请码}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{name:
 nickName:
 phoneNo:
@@ -910,6 +898,18 @@
   </si>
   <si>
     <t>data{true or false}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{phoneNo://11位有效的手机号码， 必须
+password: //密码 6-18位字符， 必须
+wechatNo://微信openId    必须
+gender:// 'FEMALE' OR 'MALE' OR 'UNKNOWN' 必须
+name:
+nickName:
+birthday://过去的某一时间
+followedByStoreId://数据归属门店
+invitationCode: //邀请码}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1381,8 +1381,8 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1459,7 +1459,7 @@
         <v>172</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>165</v>
@@ -1566,10 +1566,10 @@
         <v>169</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -1382,7 +1382,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="181">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -910,6 +910,29 @@
 birthday://过去的某一时间
 followedByStoreId://数据归属门店
 invitationCode: //邀请码}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取七牛云Token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qiniu/token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String token //必须 取值: UPLOAD_TWEET_COVER_ICON_TOKEN,
+  UPLOAD_USER_HEAD_ICON_TOKEN,
+  DEFAULT_UPLOAD_TOKEN
+int distributerId  //必须 用户Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1378,11 +1401,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2117,6 +2140,23 @@
       </c>
       <c r="F42" s="5" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11145" windowHeight="5520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="181">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -123,11 +128,735 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{'phoneNo':'18300001234',
-      'password':'yzw123456',
+    <t>192.168.0.115:8080/yiwu/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/loginByWechat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'wechatNo':'oqSnljhna3lMmHtKODoSvWQNfUTc'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为id 放在路径上 如:/api/distributer/3000004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/getById/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/modifyHeadIcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id //客户id号
+multipartfile image   //头像图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,
+"secure":false,
+"msg":"success",
+"data":
+{"id":3000018,
+ "expGradeNo":1,
+"name":"易平",
+"nickName":"Ping",
+"memeberId":"E53000018",
+"shareCode":"e3itf",
+"headIconUrl":"/resources/images/headIcons/E53000018jpg",
+"neededExpForUpdate":10000.0,
+"beatRate":1.0
+},
+"result":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/business/getperformance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取推广成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //客户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,
+"secure":false,
+"msg":"success",
+"data":
+{"distributerId":3000018,
+ "myShareTweetTimes":1,//我分享推文的有效次数(
+                不产生经验收益的不算)
+"subordinateShareTweetTimes":"100",  //我的下级
+     客户分享推文的次数
+"subordinateCount":"100",   //我的一级客户数量
+"secondaryCount":"200",     //我的二级客户数量
+"subordinateOrderCount":"10", //我的一级客户成
+         交订单数
+"secondaryOrderCount":"20",  //我的二级客户成
+         交的订单数
+}
+"result":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multipart/form-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,
+"secure":false,
+"msg":"success",
+"data":
+{"id":3000004,
+"expGradeNo":1,
+"name":"AngelinaJolie",
+"nickName":"Angelina",
+"memeberId":"E5000001",
+"shareCode":"wo45g",
+"headIconUrl":null,
+"neededExpForUpdate":10000.0,
+"beatRate":1.0
+},
+"result":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取前三名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/business/getTopThree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,"secure":false,"msg":"success","data":[{"distributerApiView":{"id":3000044,"expGradeNo":1,"name":"金程伟","nickName":"king","memeberId":"E53000044","shareCode":"e3in5","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":150.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000045,"expGradeNo":1,"name":"张三","nickName":"zhangsan","memeberId":"E53000045","shareCode":"e3ini","headIconUrl":null,"registerDate":"2017-05-06","neededExpForUpdate":10000.0,"beatRate":0.0},"accumulativeBrokerage":100.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":0,"secondaryCount":0,"subordinateOrderCount":0,"secondaryOrderCount":0},{"distributerApiView":{"id":3000018,"expGradeNo":1,"name":"易平","nickName":"Ping","memeberId":"E53000018","shareCode":"e3itf","headIconUrl":"/resources/images/headIcons/E53000018jpg","registerDate":"2017-05-03","neededExpForUpdate":9920.0,"beatRate":0.0},"accumulativeBrokerage":50.0,"myShareTweetTimes":0,"subordinateShareTweetTimes":0,"subordinateCount":1,"secondaryCount":3,"subordinateOrderCount":0,"secondaryOrderCount":0}],"result":true}</t>
+  </si>
+  <si>
+    <t>/api/moneyRecord/getCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资金进出的总记录数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,"secure":false,"msg":"success","data":4,"result":true}</t>
+  </si>
+  <si>
+    <t>获取资金记录列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/getList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,"secure":false,"msg":"success","data":[{"benificiaryId":3000043,"date":1494035089000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":50.0},{"benificiaryId":3000043,"date":1494035518000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":100.0},{"benificiaryId":3000043,"date":1494035639000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":150.0},{"benificiaryId":3000043,"date":1494042623000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":200.0}],"result":true}</t>
+  </si>
+  <si>
+    <t>获取默认的提现帐号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //客户id</t>
+  </si>
+  <si>
+    <t>新增提现帐号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认提现帐号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/capitalAccount/getDefault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取帐号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/capitalAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //客户id
+string account
+string typeName  //"微信" 或者 "支付宝"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId
+string typeName  //帐号类型 "微信" 或者 "支付宝"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //客户id
+int accountId       //帐号id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data: {accountId：帐号id, typeName:帐号类型, account:帐号}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data: true(or false)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post（put)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/capitalAccount/setDefault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/withdraw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId  //提现人
+int accountId    //提现帐号
+float amount     //提现金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/payDeposit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付定金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId  //支付人
+float amount     //支付金额
+boolean fundsFirst //是否优先使用基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程券是什么东东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有推文类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{id:推文类型Id, name: 推文类型名}...]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int tweetTypeId  //推文类型Id 必须， 全部类型id =0 
+String title     //推文标题, 非必须 按标题模糊查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>保存推文
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>富文本编辑器使用ueditor)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String author  //作者 必须
+String title  //富文本标题 必须
+String digest //简介 必须 50字以内
+multiFile coverIcon //推文简介图片 必须
+int tweetTypeId //推文类型Id  必须
+String content  // 推文富文本内容 必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{tweetId: 推文Id, 
+title: 推文标题，
+digest: 推文简介,
+coverIconUrl: 推文简介图片相对Url,
+tweetTypeName: 推文类型}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/id/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id //推文Id 必须 放在路径上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id:推文Id,
+title: 推文标题,
+author: 推文作者,
+editDate: 推文创作日期,
+contentHtml: 推文内容}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取推文简介表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取推文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享推文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/share</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //分享者Id 必须
+int tweetId         //推文Id 必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/tweetType/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取消息列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/message/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int receiverId      //接收者Id  必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{id: 消息Id,
+ date:消息发送日期,
+ status: 消息状态（未读或已读)
+ content: 消息文本内容}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/message/id/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id: 消息Id,
+ date:消息发送日期,
+ status: 消息状态（未读或已读)
+ content: 消息文本内容}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获取消息
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取之后会将状态设置为已读)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int id    //消息Id 必须 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放在路径上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId  // 分享者Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{id: 订单Id,
+ productName： 产品名称，
+ buyDate:购买日期}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/order/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/order/id/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String id    //订单Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id:订单Id,
+contractNo: 合同编号,
+productType: 产品类型（开放式，封闭式，私教课),
+validityTimes: 合约有效次数,
+contractStart: 合约开始时间,
+contractEnd: 合约结束时间,
+courseId: 课程Id,
+courseName: 课程名，
+courseStore:上课门店，
+courseStartDate: 课程开始日期}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课时列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/course/id/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String id    //课程Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">data:{id: 课程Id,
+courseDesc:课程描述,
+danceName: 舞蹈名,
+danceGrade: 舞蹈等级}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/lesson/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String courseId //课程Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{id:课时Id,
+date: 上课日期,
+name: 课时名称,
+start:开始上课时间,
+end: 上课结束时间,
+storeName:上课门店名称,
+dueteacher: 上课老师}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取上课记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int customerid //客户Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/checkIns/lesson/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取上课总记录数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/checkIns/lesson/count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date:{count:上课总记录数}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取电子合约文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String contractNo  //电子合约文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认合约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/e-contract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int customerid //客户Id
+String contractNo //合约号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{contractNo:合约号,
+ text:电子合约文本,
+ isConfirmed:客户是否已确认合约}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证手机号码是否已注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String: phoneNo //手机号码 必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/validatyPhoneNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data: true(or false) //已注册返回true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享推文记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/share/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharerId   //推文分享者Id 必须 (我，一级客户，二级客户)
+int beneficiaryId        //经验收益者Id 必须 (我)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我分享的推文记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int sharerId   //我的Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{{id:推文分享记录Id,
+sharer:分享者姓名,
+shareDate: 分享日期,
+tweetTitle: 分享的推文标题,
+tweetType: 分享的推文类型,
+exp: 分享该推文后,beneficiaryId收获的经验值}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我所有一级客户的分享推文记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/share/list/my</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/tweet/share/list/subordinates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一级客户注册记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取二级客户注册记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/registerRecords/subordinates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/registerRecords/secondaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId  //分享者Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{registerDate: 注册日期,
+memberId:会员Id,
+memberName 会员名,
+superDistributerName:上级分销者姓名,
+exp:本人获取到的经验值}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一级客户成交订单记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取二级可定成交订单记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{payedDate:订单支付日期}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/orderRecords/subordinates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/moneyRecord/orderRecords/secondaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:[{payedDate: 订单日期,
+membername:会员姓名,
+superDistributerName:上级分销者姓名,
+orderAmount: 订单金额,
+promotionRate: 提成比率,
+inComeBrokerage: 收入}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int beneficiaryId //客户id,(收益人)
+String category //取值 "全部", "收入","奖励","支出", "提现"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id:分享者Id,
+expGradeNo:经验等级号，
+name: 姓名，
+nickName:呢称，
+phoneNo:手机号码,
+memberId:会员Id,
+shareCode:分享码,
+headIconUrl:头像Url,
+registerDate:注册日期，
+neededExpForUpdate:经验等级升到下一级所需经验,
+brokerage:当前拥有的佣金,
+funds:当前拥有的基金，
+customerId:对应的客户Id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{'phoneNo':'18300001234', //必须
+      'password':'yzw123456', //必须
       'name':'Angelina Jolie',
       'nickName':'Angelina',
-      'gender':‘female',
+      'gender':‘FEMALE', //('FEMALE' OR 'MALE' OR   'UNKNOWN')
       'birthday':'2000-01-01',
       'followedByStore.id':63,
      'wechatNo':'oqSnljhna3lMmHtKODoSvWQNfUTc',
@@ -137,23 +866,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.115:8080/yiwu/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/distributer/loginByWechat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"returnCode":200,"secure":false,"msg":"success","data":{"id":3000004,"expGradeNo":1,"name":"Angelina Jolie","nickName":"Angelina","memeberId":"E5000001","shareCode":"wo45g","headIconUrl":null,"neededExpForUpdate":10000.0,"beatRate":1.0},"result":true}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'wechatNo':'oqSnljhna3lMmHtKODoSvWQNfUTc'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取个人信息</t>
+    <t>修改个人信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -161,11 +874,65 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为id 放在路径上 如:/api/distributer/3000004</t>
+    <t>put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{name:
+nickName:
+phoneNo:
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data{true or false}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{phoneNo://11位有效的手机号码， 必须
+password: //密码 6-18位字符， 必须
+wechatNo://微信openId    必须
+gender:// 'FEMALE' OR 'MALE' OR 'UNKNOWN' 必须
+name:
+nickName:
+birthday://过去的某一时间
+followedByStoreId://数据归属门店
+invitationCode: //邀请码}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取七牛云Token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qiniu/token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String token //必须 取值: UPLOAD_TWEET_COVER_ICON_TOKEN,
+  UPLOAD_USER_HEAD_ICON_TOKEN,
+  DEFAULT_UPLOAD_TOKEN
+int distributerId  //必须 用户Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +940,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +982,40 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +1034,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -248,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -261,9 +1066,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -272,6 +1074,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,52 +1400,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="39.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="24.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="56.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="50.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="186" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -632,62 +1461,702 @@
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="F8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A31" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +2168,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -750,6 +2220,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
     <sheet name="Question" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1404,8 +1400,8 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace3\yiwu\prototypes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195"/>
   </bookViews>
@@ -10,8 +15,7 @@
     <sheet name="API" sheetId="2" r:id="rId1"/>
     <sheet name="Question" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -878,10 +882,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/distributer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -929,6 +929,10 @@
   UPLOAD_USER_HEAD_ICON_TOKEN,
   DEFAULT_UPLOAD_TOKEN
 int distributerId  //必须 用户Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/add</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1400,8 +1404,8 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1472,13 +1476,13 @@
         <v>170</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>165</v>
@@ -1585,10 +1589,10 @@
         <v>169</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2140,19 +2144,19 @@
     </row>
     <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="E43" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -882,6 +882,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/api/distributer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -929,10 +933,6 @@
   UPLOAD_USER_HEAD_ICON_TOKEN,
   DEFAULT_UPLOAD_TOKEN
 int distributerId  //必须 用户Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/distributer/add</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1476,13 +1476,13 @@
         <v>170</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>165</v>
@@ -1589,10 +1589,10 @@
         <v>169</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2144,19 +2144,19 @@
     </row>
     <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="180">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -685,20 +685,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>String contractNo  //电子合约文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>确认合约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/e-contract</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int customerid //客户Id
-String contractNo //合约号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -933,6 +920,14 @@
   UPLOAD_USER_HEAD_ICON_TOKEN,
   DEFAULT_UPLOAD_TOKEN
 int distributerId  //必须 用户Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/e-contract/{contractNo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{boolean isConfirmed}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1403,9 +1398,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1462,10 +1457,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
@@ -1473,37 +1468,37 @@
     </row>
     <row r="4" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1521,7 +1516,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.15">
@@ -1538,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
@@ -1580,53 +1575,53 @@
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1691,7 +1686,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>55</v>
@@ -1699,10 +1694,10 @@
     </row>
     <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>40</v>
@@ -1711,15 +1706,15 @@
         <v>42</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>40</v>
@@ -1728,7 +1723,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1830,7 +1825,7 @@
         <v>77</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1923,53 +1918,53 @@
     </row>
     <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -2113,30 +2108,27 @@
         <v>131</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="B42" s="5" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>69</v>
@@ -2144,19 +2136,19 @@
     </row>
     <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
-    <sheet name="Question" sheetId="1" r:id="rId2"/>
+    <sheet name="后台页面" sheetId="3" r:id="rId2"/>
+    <sheet name="Question" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="182">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -930,12 +931,19 @@
     <t>{boolean isConfirmed}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>/ueditor/test.html</t>
+  </si>
+  <si>
+    <t>添加推文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1017,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1048,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1091,6 +1107,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1398,9 +1415,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2159,6 +2176,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C5"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="185">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -682,14 +682,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取电子合约文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认合约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>data:{contractNo:合约号,
  text:电子合约文本,
  isConfirmed:客户是否已确认合约}</t>
@@ -928,14 +920,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{boolean isConfirmed}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/ueditor/test.html</t>
   </si>
   <si>
     <t>添加推文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取电子合约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认订单(确认合约)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/order/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{eContractStatus:boolean}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{true}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1415,9 +1427,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1474,10 +1486,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
@@ -1485,37 +1497,37 @@
     </row>
     <row r="4" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1533,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.15">
@@ -1550,7 +1562,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
@@ -1592,53 +1604,53 @@
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1703,7 +1715,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>55</v>
@@ -1711,10 +1723,10 @@
     </row>
     <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>40</v>
@@ -1723,15 +1735,15 @@
         <v>42</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>40</v>
@@ -1740,7 +1752,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1842,7 +1854,7 @@
         <v>77</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1935,53 +1947,53 @@
     </row>
     <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -2052,63 +2064,63 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>90</v>
@@ -2116,56 +2128,56 @@
       <c r="E40" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="F40" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="E43" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2188,10 +2202,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -1428,8 +1428,8 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="15" t="s">
         <v>179</v>
       </c>
       <c r="B42" s="5" t="s">

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="184">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -595,27 +595,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/order/id/{id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String id    //订单Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:{id:订单Id,
-contractNo: 合同编号,
-productType: 产品类型（开放式，封闭式，私教课),
-validityTimes: 合约有效次数,
-contractStart: 合约开始时间,
-contractEnd: 合约结束时间,
-courseId: 课程Id,
-courseName: 课程名，
-courseStore:上课门店，
-courseStartDate: 课程开始日期}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取课程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -943,11 +922,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{eContractStatus:boolean}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>data:{true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/order/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:{id:订单Id,
+contractNo: 合同编号,
+productType: 产品类型（开放式，封闭式，私教课),
+validityTimes: 合约有效次数,
+contractStart: 合约开始时间,
+contractEnd: 合约结束时间,
+courseId: 课程Id,
+courseName: 课程名，
+courseStore:上课门店，
+courseStartDate: 课程开始日期,
+eContractStatus: 订单的确认状态(true,false)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{eContractStatus:boolean (0,1,'true','false')}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1428,8 +1425,8 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1486,10 +1483,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
@@ -1497,37 +1494,37 @@
     </row>
     <row r="4" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="C5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1545,7 +1542,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.15">
@@ -1562,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
@@ -1604,53 +1601,53 @@
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1715,7 +1712,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>55</v>
@@ -1723,10 +1720,10 @@
     </row>
     <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>40</v>
@@ -1735,15 +1732,15 @@
         <v>42</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>40</v>
@@ -1752,7 +1749,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1854,7 +1851,7 @@
         <v>77</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1947,53 +1944,53 @@
     </row>
     <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -2047,137 +2044,134 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>183</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2202,10 +2196,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -603,10 +603,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/course/id/{id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>String id    //课程Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -658,12 +654,6 @@
   </si>
   <si>
     <t>date:{count:上课总记录数}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>data:{contractNo:合约号,
- text:电子合约文本,
- isConfirmed:客户是否已确认合约}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -930,12 +920,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>{eContractStatus:boolean (0,1,'true','false')}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>data:{id:订单Id,
 contractNo: 合同编号,
 productType: 产品类型（开放式，封闭式，私教课),
 validityTimes: 合约有效次数,
 contractStart: 合约开始时间,
 contractEnd: 合约结束时间,
+checkedStatus: 合约状态,
 courseId: 课程Id,
 courseName: 课程名，
 courseStore:上课门店，
@@ -944,7 +943,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{eContractStatus:boolean (0,1,'true','false')}</t>
+    <t xml:space="preserve">/api/course/id/{id}  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +951,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1033,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1073,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1117,6 +1131,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1425,8 +1448,8 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1483,10 +1506,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>25</v>
@@ -1494,37 +1517,37 @@
     </row>
     <row r="4" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1542,7 +1565,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.15">
@@ -1559,7 +1582,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
@@ -1601,53 +1624,53 @@
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1712,7 +1735,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>55</v>
@@ -1720,10 +1743,10 @@
     </row>
     <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>40</v>
@@ -1732,15 +1755,15 @@
         <v>42</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>40</v>
@@ -1749,7 +1772,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1851,7 +1874,7 @@
         <v>77</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1944,53 +1967,53 @@
     </row>
     <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -2044,12 +2067,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="162" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>90</v>
@@ -2060,36 +2083,37 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="E37" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
@@ -2097,81 +2121,81 @@
         <v>115</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>90</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="E43" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2196,10 +2220,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
-    <sheet name="后台页面" sheetId="3" r:id="rId2"/>
-    <sheet name="Question" sheetId="1" r:id="rId3"/>
+    <sheet name="EmployeeApi" sheetId="5" r:id="rId2"/>
+    <sheet name="后台页面" sheetId="3" r:id="rId3"/>
+    <sheet name="Question" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="192">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -944,6 +945,45 @@
   </si>
   <si>
     <t xml:space="preserve">/api/course/id/{id}  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一周课时列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/lesson/weeklist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{storeid:int,     必须 (-1 表示全部)
+courseType:String, 必须(开放式，封闭式，全部)
+teacherName:String, 非必须(全部, 不传值 表示全部)
+danceCatagory: String, 非必须(全部, 不传值 表示全部)
+date: Date         非必须(不传值表示当天)
+weChat:String      非必须
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有教练</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/employee/getAllCoaches</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{id:
+name:}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1087,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1139,6 +1179,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,11 +1488,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2135,27 +2178,27 @@
     </row>
     <row r="40" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>90</v>
@@ -2163,38 +2206,55 @@
       <c r="E41" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>126</v>
+      <c r="F41" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="15" t="s">
-        <v>174</v>
+      <c r="A42" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="E42" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2207,10 +2267,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I10:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2233,7 +2355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C5"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -1490,9 +1490,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I10:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="195">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -984,6 +984,17 @@
   <si>
     <t>{id:
 name:}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享推文2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/shareTweet</t>
+  </si>
+  <si>
+    <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,6 +1125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1127,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1182,6 +1199,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,11 +1511,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2008,46 +2031,46 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>138</v>
+    <row r="30" spans="1:6" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A32" s="14" t="s">
-        <v>139</v>
+      <c r="A32" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>134</v>
@@ -2059,163 +2082,163 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="E36" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F36" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="17" t="s">
+    <row r="39" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B39" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F39" s="19" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>90</v>
@@ -2223,38 +2246,55 @@
       <c r="E42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>126</v>
+      <c r="F42" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="15" t="s">
-        <v>174</v>
+      <c r="A43" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>169</v>
       </c>
     </row>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -991,10 +991,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/api/shareTweet</t>
-  </si>
-  <si>
     <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付定金2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">data:true </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/event/deposit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/event/shareTweet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/event/withdraw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int distributerId  //提现人
+int accountId    //提现帐号
+float amount     //提现金额}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1511,11 +1538,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1926,375 +1953,409 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" s="21" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:6" s="21" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+    <row r="30" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="21" t="s">
+    <row r="32" spans="1:6" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B32" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="22" t="s">
+      <c r="E32" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F32" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
+    <row r="33" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A33" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A33" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="162" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="E37" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="F37" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="15" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="17" t="s">
+    <row r="41" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B41" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19" t="s">
+      <c r="D41" s="18"/>
+      <c r="E41" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F41" s="19" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="15" t="s">
-        <v>174</v>
+        <v>187</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="E44" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="F44" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+    <row r="47" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>169</v>
       </c>
     </row>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="207">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -289,9 +289,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"returnCode":200,"secure":false,"msg":"success","data":[{"benificiaryId":3000043,"date":1494035089000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":50.0},{"benificiaryId":3000043,"date":1494035518000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":100.0},{"benificiaryId":3000043,"date":1494035639000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":150.0},{"benificiaryId":3000043,"date":1494042623000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":200.0}],"result":true}</t>
-  </si>
-  <si>
     <t>获取默认的提现帐号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1022,6 +1019,70 @@
   </si>
   <si>
     <t>提现2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/incomeRecord/list/shareTweet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int observerId,必须
+int eventTypeId,必须(10004：注册,10005：分享, 10007:订单
+int relationTypeId 必须(10015：本人,10016:一级,10017:二级
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取收益记录列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取分享推文收益记录列表2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/incomeRecord/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>data:{id: 收益记录Id,
+data:记录日期,
+memberName:会员名,
+memberId:会员Id,
+superMemberName:上级会员名,
+incomeTypeName</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:收益类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+incomeValue:收益值,
+payedAmount: 订单金额,
+factor:收益系数}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"returnCode":200,"secure":false,"msg":"success",
+"data":[{"benificiaryId":3000043,"date":1494035089000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":50.0},{"benificiaryId":3000043,"date":1494035518000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":100.0},{"benificiaryId":3000043,"date":1494035639000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":150.0},{"benificiaryId":3000043,"date":1494042623000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":200.0}],"result":true}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1158,6 +1219,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1171,7 +1238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1197,9 +1264,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1231,6 +1295,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1538,11 +1614,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1588,59 +1664,59 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" s="22" customFormat="1" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>155</v>
+        <v>164</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -1657,8 +1733,8 @@
       <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>155</v>
+      <c r="F6" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.15">
@@ -1674,8 +1750,8 @@
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>155</v>
+      <c r="F7" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
@@ -1716,58 +1792,58 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="E10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="22" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C12" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1784,7 +1860,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1800,25 +1876,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:7" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:7" ht="189" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1828,535 +1904,569 @@
         <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A18" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="20" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="E20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+    <row r="24" spans="1:6" s="22" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="E24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="F24" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="22" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="21" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
+      <c r="C26" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A34" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A35" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="20" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A36" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="21" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="C36" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A37" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="B38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A35" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="6" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+      <c r="C39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="F39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="6" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="F40" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="162" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="162" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="B43" s="17" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19" t="s">
+      <c r="C43" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="F46" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E49" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2407,10 +2517,10 @@
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" t="s">
-        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -2418,8 +2528,8 @@
       <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>191</v>
+      <c r="F2" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2443,10 +2553,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="16" t="s">
         <v>172</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2512,7 +2622,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -1616,9 +1616,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="208">
   <si>
     <t>将余额转入订金账户，用来购买产品</t>
   </si>
@@ -297,9 +297,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int distributerId   //客户id</t>
-  </si>
-  <si>
     <t>新增提现帐号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -887,9 +884,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/ueditor/test.html</t>
-  </si>
-  <si>
     <t>添加推文</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -911,10 +905,6 @@
   </si>
   <si>
     <t>data:{true}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/order/{id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1085,12 +1075,28 @@
 "data":[{"benificiaryId":3000043,"date":1494035089000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":50.0},{"benificiaryId":3000043,"date":1494035518000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":100.0},{"benificiaryId":3000043,"date":1494035639000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":150.0},{"benificiaryId":3000043,"date":1494042623000,"category":"收入","amount":50.0,"currentBrockerage":0.0,"currentFunds":200.0}],"result":true}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>获取个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/distributer/{distributerId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int distributerId   //客户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ueditor/test.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1187,8 +1193,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,6 +1246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1238,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1263,9 +1290,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1308,6 +1332,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1614,14 +1662,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="5" customWidth="1"/>
@@ -1633,7 +1681,7 @@
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1641,7 +1689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1664,63 +1712,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:7" s="21" customFormat="1" ht="189.75" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="189.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>154</v>
+        <v>163</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="195">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1733,11 +1781,11 @@
       <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="195" x14ac:dyDescent="0.15">
+      <c r="F6" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="195">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1750,723 +1798,736 @@
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="21" customFormat="1" ht="15">
+      <c r="A8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="15">
+      <c r="A9" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="27">
+      <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:7" ht="54">
+      <c r="A11" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+    </row>
+    <row r="12" spans="1:7" s="21" customFormat="1" ht="67.5">
+      <c r="A12" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="21" customFormat="1" ht="67.5">
+      <c r="A13" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="C13" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="23" t="s">
+    </row>
+    <row r="14" spans="1:7" s="30" customFormat="1">
+      <c r="A14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="30" customFormat="1">
+      <c r="A15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="21" customFormat="1" ht="15">
+      <c r="A16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="21" customFormat="1" ht="189">
+      <c r="A17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="21" customFormat="1" ht="81">
+      <c r="A18" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B18" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="F18" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="21" customFormat="1" ht="81">
+      <c r="A19" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="189" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="F19" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="19" customFormat="1" ht="121.5">
+      <c r="A20" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="20" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27">
+      <c r="A22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5">
+      <c r="A23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27">
+      <c r="A24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+    <row r="25" spans="1:6" s="21" customFormat="1" ht="40.5">
+      <c r="A25" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="22" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="22" t="s">
+      <c r="E25" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="23" t="s">
+      <c r="F25" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1" ht="40.5">
+      <c r="A26" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="21" customFormat="1" ht="40.5">
+      <c r="A27" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="20" t="s">
+      <c r="C27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="19" customFormat="1" ht="40.5">
+      <c r="A28" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="81">
+      <c r="A30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="67.5">
+      <c r="A31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="67.5">
+      <c r="A32" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="21" customFormat="1" ht="27">
+      <c r="A33" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="19" customFormat="1" ht="27">
+      <c r="A34" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="21" customFormat="1" ht="81">
+      <c r="A35" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="21" customFormat="1" ht="81">
+      <c r="A36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="19" customFormat="1" ht="81">
+      <c r="A37" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="21" t="s">
+      <c r="C37" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="22" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="20" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="F37" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="21" customFormat="1" ht="81">
+      <c r="A38" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="54">
+      <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="B39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="20" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="22" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A37" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="6" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="54">
+      <c r="A40" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="F40" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="6" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="40.5">
+      <c r="A41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="B41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="F41" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="162">
+      <c r="A42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="162" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+      <c r="B42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="67.5">
+      <c r="A44" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="B44" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="94.5">
+      <c r="A45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="94.5">
+      <c r="A46" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="94.5">
+      <c r="A47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="54" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:6" ht="54">
+      <c r="A50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="E50" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2481,10 +2542,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -2492,7 +2553,7 @@
     <col min="5" max="5" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -2515,12 +2576,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
@@ -2528,8 +2589,8 @@
       <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>190</v>
+      <c r="F2" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2543,20 +2604,20 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2575,14 +2636,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
     <col min="2" max="2" width="106.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,7 +2651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2598,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2609,7 +2670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2620,9 +2681,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5_distributer_system.xlsx
+++ b/prototypes/E5_distributer_system.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -1665,8 +1665,8 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
